--- a/usecase/testdata/updated.xlsx
+++ b/usecase/testdata/updated.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7620"/>
+    <workbookView windowWidth="20490" windowHeight="7020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1250,7 +1250,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -1263,7 +1263,7 @@
     <col min="12" max="12" width="27.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" spans="1:12">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="2">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2">
         <v>2025</v>
@@ -1324,7 +1324,7 @@
         <v>8</v>
       </c>
       <c r="H2" s="2">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="I2" s="2">
         <v>2025</v>
